--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\Shared ESS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B41C1E-1D85-4835-B836-F25E13DA9994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D282252B-647B-4AD3-9E96-91388492104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="3840" windowWidth="21600" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -74,12 +74,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,10 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E7A88E-2477-46FD-BE5E-2BB647C1CD4A}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -416,7 +423,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,33 +506,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
       <c r="C1">
+        <v>2025</v>
+      </c>
+      <c r="D1">
         <v>2030</v>
       </c>
-      <c r="D1">
+      <c r="E1">
+        <v>2035</v>
+      </c>
+      <c r="F1">
         <v>2040</v>
       </c>
-      <c r="E1">
+      <c r="G1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -533,20 +550,28 @@
         <f>(1/5)*'Investment Cost NREL'!B3*1000</f>
         <v>69000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
+        <f>AVERAGE(D2,B2)</f>
+        <v>54300</v>
+      </c>
+      <c r="D2" s="2">
         <f>(1/5)*'Investment Cost NREL'!C3*1000</f>
         <v>39600</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="3">
+        <f>AVERAGE(F2,D2)</f>
+        <v>37200</v>
+      </c>
+      <c r="F2" s="2">
         <f>(1/5)*'Investment Cost NREL'!D3*1000</f>
         <v>34800.000000000007</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <f>(1/5)*'Investment Cost NREL'!E3*1000</f>
         <v>29800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -554,15 +579,23 @@
         <f>(4/5)*'Investment Cost NREL'!B3*1000</f>
         <v>276000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
+        <f>AVERAGE(D3,B3)</f>
+        <v>217200</v>
+      </c>
+      <c r="D3" s="2">
         <f>(4/5)*'Investment Cost NREL'!C3*1000</f>
         <v>158400</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="3">
+        <f>AVERAGE(F3,D3)</f>
+        <v>148800</v>
+      </c>
+      <c r="F3" s="2">
         <f>(4/5)*'Investment Cost NREL'!D3*1000</f>
         <v>139200.00000000003</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <f>(4/5)*'Investment Cost NREL'!E3*1000</f>
         <v>119200</v>
       </c>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D282252B-647B-4AD3-9E96-91388492104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5211894-1C6C-4697-8270-CECAD70091C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="3840" windowWidth="21600" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5211894-1C6C-4697-8270-CECAD70091C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8CF801-EA3C-493A-89CB-4BB1CB28FEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="3840" windowWidth="21600" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="3675" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
     <sheet name="Investment Cost NREL" sheetId="4" r:id="rId2"/>
-    <sheet name="Investment Cost" sheetId="5" r:id="rId3"/>
+    <sheet name="Cost breakdown NREL" sheetId="82" r:id="rId3"/>
+    <sheet name="Investment Cost" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CC977544-0E5C-4BBA-910C-B6EF7CE44BA6}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{CC977544-0E5C-4BBA-910C-B6EF7CE44BA6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    60 MW, 140 MWh</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>numScenarios</t>
   </si>
@@ -59,19 +78,55 @@
   </si>
   <si>
     <t>E, [$, MWh]</t>
+  </si>
+  <si>
+    <t>Li-Ion Battery cabinet</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Cost, [$/kWh]</t>
+  </si>
+  <si>
+    <t>Interconnection fee</t>
+  </si>
+  <si>
+    <t>EPC/developer net profit</t>
+  </si>
+  <si>
+    <t>EPC overhead</t>
+  </si>
+  <si>
+    <t>Electrical BoS</t>
+  </si>
+  <si>
+    <t>Developer overhead</t>
+  </si>
+  <si>
+    <t>Contingency</t>
+  </si>
+  <si>
+    <t>Battery central inverter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,6 +175,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Micael Filipe Simões" id="{1A8581CF-1C90-4290-87AA-AEC87108BD69}" userId="S::micael.f.simoes@office365.inesctec.pt::eda79a68-0a53-466c-b461-4273bef5ac4f" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,6 +444,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2024-06-19T10:39:49.33" personId="{1A8581CF-1C90-4290-87AA-AEC87108BD69}" id="{CC977544-0E5C-4BBA-910C-B6EF7CE44BA6}">
+    <text>60 MW, 140 MWh</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E7A88E-2477-46FD-BE5E-2BB647C1CD4A}">
   <dimension ref="A1:E1"/>
@@ -420,10 +489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1BF002-C479-4585-BB53-0E4A987995C6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +500,7 @@
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -439,64 +508,388 @@
         <v>2020</v>
       </c>
       <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
         <v>2030</v>
       </c>
-      <c r="D1">
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
         <v>2040</v>
       </c>
-      <c r="E1">
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>345</v>
+      <c r="B2" s="3">
+        <v>1587.252</v>
       </c>
       <c r="C2" s="2">
-        <v>143</v>
+        <v>1587.252</v>
       </c>
       <c r="D2" s="2">
-        <v>115</v>
+        <v>1784</v>
       </c>
       <c r="E2" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1283.4090000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1211.3689999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1149.7380000000001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1100.9359999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1052.134</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1003.332</v>
+      </c>
+      <c r="K2" s="2">
+        <v>954.52800000000002</v>
+      </c>
+      <c r="L2" s="2">
+        <v>905.74199999999996</v>
+      </c>
+      <c r="M2" s="2">
+        <v>889.86099999999999</v>
+      </c>
+      <c r="N2" s="2">
+        <v>873.98</v>
+      </c>
+      <c r="O2" s="2">
+        <v>858.08399999999995</v>
+      </c>
+      <c r="P2" s="2">
+        <v>842.20399999999995</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>826.34</v>
+      </c>
+      <c r="R2" s="2">
+        <v>810.44299999999998</v>
+      </c>
+      <c r="S2" s="2">
+        <v>794.56299999999999</v>
+      </c>
+      <c r="T2" s="2">
+        <v>778.68200000000002</v>
+      </c>
+      <c r="U2" s="2">
+        <v>762.80200000000002</v>
+      </c>
+      <c r="V2" s="2">
+        <v>746.90499999999997</v>
+      </c>
+      <c r="W2" s="2">
+        <v>731.02499999999998</v>
+      </c>
+      <c r="X2" s="2">
+        <v>715.16099999999994</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>699.28099999999995</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>683.38400000000001</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>667.50300000000004</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>651.62300000000005</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>635.74199999999996</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>619.84500000000003</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>603.96500000000003</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>588.10199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>345</v>
+      <c r="B3" s="3">
+        <v>1587.252</v>
       </c>
       <c r="C3" s="2">
-        <v>198</v>
+        <v>1587.252</v>
       </c>
       <c r="D3" s="2">
-        <v>174</v>
+        <v>1784</v>
       </c>
       <c r="E3" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1715.502</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1638.7750000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1436.1769999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1389.7180000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1343.2560000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1296.79</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1250.32</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1203.845</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1185.278</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1166.712</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1148.146</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1129.58</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1111.0160000000001</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1092.452</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1073.8879999999999</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1055.326</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1036.7639999999999</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1018.203</v>
+      </c>
+      <c r="W3" s="2">
+        <v>999.64300000000003</v>
+      </c>
+      <c r="X3" s="2">
+        <v>981.08399999999995</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>962.52599999999995</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>943.96799999999996</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>925.41200000000003</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>906.85599999999999</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>888.30200000000002</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>869.74900000000002</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>851.197</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>832.64599999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>345</v>
+      <c r="B4" s="3">
+        <v>1587.252</v>
       </c>
       <c r="C4" s="2">
-        <v>248</v>
+        <v>1587.252</v>
       </c>
       <c r="D4" s="2">
-        <v>248</v>
+        <v>1784</v>
       </c>
       <c r="E4" s="2">
-        <v>248</v>
+        <v>1850.08</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1863.288</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1836.8510000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1768.0609999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1699.2719999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1630.4839999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1561.6969999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1492.9110000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1482.69</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1472.4680000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1462.2460000000001</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1452.0250000000001</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1441.8030000000001</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1431.5809999999999</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1421.36</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1411.1379999999999</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1400.9169999999999</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1390.6949999999999</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1380.473</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1370.252</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1360.03</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1349.808</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1339.587</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1329.365</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1319.143</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1308.922</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1298.7</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1288.4780000000001</v>
       </c>
     </row>
   </sheetData>
@@ -505,99 +898,465 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F6E267-467C-483D-8CCD-C38B5B3B7274}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>270.22000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>20.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>44.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>24.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="32" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
       <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
         <v>2025</v>
       </c>
-      <c r="D1">
+      <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
         <v>2030</v>
       </c>
-      <c r="E1">
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
         <v>2035</v>
       </c>
-      <c r="F1">
+      <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
         <v>2040</v>
       </c>
-      <c r="G1">
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <f>(1/5)*'Investment Cost NREL'!B3*1000</f>
-        <v>69000</v>
-      </c>
-      <c r="C2" s="3">
-        <f>AVERAGE(D2,B2)</f>
-        <v>54300</v>
+        <f>HLOOKUP(B$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>319886.15967365965</v>
+      </c>
+      <c r="C2" s="2">
+        <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>319886.15967365965</v>
       </c>
       <c r="D2" s="2">
-        <f>(1/5)*'Investment Cost NREL'!C3*1000</f>
-        <v>39600</v>
-      </c>
-      <c r="E2" s="3">
-        <f>AVERAGE(F2,D2)</f>
-        <v>37200</v>
+        <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>359537.68453768449</v>
+      </c>
+      <c r="E2" s="2">
+        <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>345732.96911421907</v>
       </c>
       <c r="F2" s="2">
-        <f>(1/5)*'Investment Cost NREL'!D3*1000</f>
-        <v>34800.000000000007</v>
+        <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>330269.82566045062</v>
       </c>
       <c r="G2" s="2">
-        <f>(1/5)*'Investment Cost NREL'!E3*1000</f>
-        <v>29800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>289439.32352369849</v>
+      </c>
+      <c r="H2" s="2">
+        <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>280076.22863247863</v>
+      </c>
+      <c r="I2" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>270712.52913752914</v>
+      </c>
+      <c r="J2" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>261348.02350427347</v>
+      </c>
+      <c r="K2" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>251982.7117327117</v>
+      </c>
+      <c r="L2" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>242616.39228826726</v>
+      </c>
+      <c r="M2" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>238874.4998057498</v>
+      </c>
+      <c r="N2" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>235132.80885780885</v>
+      </c>
+      <c r="O2" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>231391.1179098679</v>
+      </c>
+      <c r="P2" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>227649.42696192695</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>223908.13908313907</v>
+      </c>
+      <c r="R2" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>220166.85120435117</v>
+      </c>
+      <c r="S2" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>216425.5633255633</v>
+      </c>
+      <c r="T2" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>212684.67851592851</v>
+      </c>
+      <c r="U2" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>208943.79370629365</v>
+      </c>
+      <c r="V2" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205203.11043123543</v>
+      </c>
+      <c r="W2" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>201462.62869075369</v>
+      </c>
+      <c r="X2" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>197722.34848484848</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>193982.26981351979</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>190242.19114219112</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>186502.51554001553</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>182762.83993783992</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>179023.56740481738</v>
+      </c>
+      <c r="AD2" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>175284.49640637139</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>171545.62694250193</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>167806.95901320901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <f>(4/5)*'Investment Cost NREL'!B3*1000</f>
-        <v>276000</v>
-      </c>
-      <c r="C3" s="3">
-        <f>AVERAGE(D3,B3)</f>
-        <v>217200</v>
+        <f>HLOOKUP(B$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>1267365.8403263404</v>
+      </c>
+      <c r="C3" s="2">
+        <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>1267365.8403263404</v>
       </c>
       <c r="D3" s="2">
-        <f>(4/5)*'Investment Cost NREL'!C3*1000</f>
-        <v>158400</v>
-      </c>
-      <c r="E3" s="3">
-        <f>AVERAGE(F3,D3)</f>
-        <v>148800</v>
+        <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>1424462.3154623155</v>
+      </c>
+      <c r="E3" s="2">
+        <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>1369769.0308857809</v>
       </c>
       <c r="F3" s="2">
-        <f>(4/5)*'Investment Cost NREL'!D3*1000</f>
-        <v>139200.00000000003</v>
+        <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>1308505.1743395492</v>
       </c>
       <c r="G3" s="2">
-        <f>(4/5)*'Investment Cost NREL'!E3*1000</f>
-        <v>119200</v>
+        <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>1146737.6764763016</v>
+      </c>
+      <c r="H3" s="2">
+        <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>1109641.7713675215</v>
+      </c>
+      <c r="I3" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>1072543.4708624708</v>
+      </c>
+      <c r="J3" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>1035441.9764957265</v>
+      </c>
+      <c r="K3" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>998337.28826728824</v>
+      </c>
+      <c r="L3" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>961228.60771173262</v>
+      </c>
+      <c r="M3" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>946403.50019425026</v>
+      </c>
+      <c r="N3" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>931579.19114219118</v>
+      </c>
+      <c r="O3" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>916754.8820901321</v>
+      </c>
+      <c r="P3" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>901930.57303807314</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>887107.86091686098</v>
+      </c>
+      <c r="R3" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>872285.14879564871</v>
+      </c>
+      <c r="S3" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>857462.43667443667</v>
+      </c>
+      <c r="T3" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>842641.32148407155</v>
+      </c>
+      <c r="U3" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>827820.2062937062</v>
+      </c>
+      <c r="V3" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>812999.8895687646</v>
+      </c>
+      <c r="W3" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>798180.37130924629</v>
+      </c>
+      <c r="X3" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>783361.65151515149</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>768543.73018648021</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>753725.80885780882</v>
+      </c>
+      <c r="AA3" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>738909.48445998447</v>
+      </c>
+      <c r="AB3" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>724093.16006216011</v>
+      </c>
+      <c r="AC3" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>709278.43259518256</v>
+      </c>
+      <c r="AD3" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>694464.50359362864</v>
+      </c>
+      <c r="AE3" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>679651.37305749801</v>
+      </c>
+      <c r="AF3" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>664839.04098679102</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8CF801-EA3C-493A-89CB-4BB1CB28FEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C954277A-DE0F-4459-987F-F365DC170FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7245" yWindow="3675" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,19 +114,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -991,117 +985,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="32" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
       <c r="C1">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D1">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E1">
-        <v>2023</v>
+        <v>2035</v>
       </c>
       <c r="F1">
-        <v>2024</v>
+        <v>2040</v>
       </c>
       <c r="G1">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="H1">
-        <v>2026</v>
-      </c>
-      <c r="I1">
-        <v>2027</v>
-      </c>
-      <c r="J1">
-        <v>2028</v>
-      </c>
-      <c r="K1">
-        <v>2029</v>
-      </c>
-      <c r="L1">
-        <v>2030</v>
-      </c>
-      <c r="M1">
-        <v>2031</v>
-      </c>
-      <c r="N1">
-        <v>2032</v>
-      </c>
-      <c r="O1">
-        <v>2033</v>
-      </c>
-      <c r="P1">
-        <v>2034</v>
-      </c>
-      <c r="Q1">
-        <v>2035</v>
-      </c>
-      <c r="R1">
-        <v>2036</v>
-      </c>
-      <c r="S1">
-        <v>2037</v>
-      </c>
-      <c r="T1">
-        <v>2038</v>
-      </c>
-      <c r="U1">
-        <v>2039</v>
-      </c>
-      <c r="V1">
-        <v>2040</v>
-      </c>
-      <c r="W1">
-        <v>2041</v>
-      </c>
-      <c r="X1">
-        <v>2042</v>
-      </c>
-      <c r="Y1">
-        <v>2043</v>
-      </c>
-      <c r="Z1">
-        <v>2044</v>
-      </c>
-      <c r="AA1">
-        <v>2045</v>
-      </c>
-      <c r="AB1">
-        <v>2046</v>
-      </c>
-      <c r="AC1">
-        <v>2047</v>
-      </c>
-      <c r="AD1">
-        <v>2048</v>
-      </c>
-      <c r="AE1">
-        <v>2049</v>
-      </c>
-      <c r="AF1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1111,126 +1031,30 @@
       </c>
       <c r="C2" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>319886.15967365965</v>
+        <v>289439.32352369849</v>
       </c>
       <c r="D2" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>359537.68453768449</v>
+        <v>242616.39228826726</v>
       </c>
       <c r="E2" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>345732.96911421907</v>
+        <v>223908.13908313907</v>
       </c>
       <c r="F2" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>330269.82566045062</v>
+        <v>205203.11043123543</v>
       </c>
       <c r="G2" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>289439.32352369849</v>
+        <v>186502.51554001553</v>
       </c>
       <c r="H2" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>280076.22863247863</v>
-      </c>
-      <c r="I2" s="2">
-        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>270712.52913752914</v>
-      </c>
-      <c r="J2" s="2">
-        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>261348.02350427347</v>
-      </c>
-      <c r="K2" s="2">
-        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>251982.7117327117</v>
-      </c>
-      <c r="L2" s="2">
-        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>242616.39228826726</v>
-      </c>
-      <c r="M2" s="2">
-        <f>HLOOKUP(M$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>238874.4998057498</v>
-      </c>
-      <c r="N2" s="2">
-        <f>HLOOKUP(N$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>235132.80885780885</v>
-      </c>
-      <c r="O2" s="2">
-        <f>HLOOKUP(O$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>231391.1179098679</v>
-      </c>
-      <c r="P2" s="2">
-        <f>HLOOKUP(P$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>227649.42696192695</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>HLOOKUP(Q$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>223908.13908313907</v>
-      </c>
-      <c r="R2" s="2">
-        <f>HLOOKUP(R$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>220166.85120435117</v>
-      </c>
-      <c r="S2" s="2">
-        <f>HLOOKUP(S$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>216425.5633255633</v>
-      </c>
-      <c r="T2" s="2">
-        <f>HLOOKUP(T$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>212684.67851592851</v>
-      </c>
-      <c r="U2" s="2">
-        <f>HLOOKUP(U$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>208943.79370629365</v>
-      </c>
-      <c r="V2" s="2">
-        <f>HLOOKUP(V$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>205203.11043123543</v>
-      </c>
-      <c r="W2" s="2">
-        <f>HLOOKUP(W$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>201462.62869075369</v>
-      </c>
-      <c r="X2" s="2">
-        <f>HLOOKUP(X$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>197722.34848484848</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>HLOOKUP(Y$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>193982.26981351979</v>
-      </c>
-      <c r="Z2" s="2">
-        <f>HLOOKUP(Z$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>190242.19114219112</v>
-      </c>
-      <c r="AA2" s="2">
-        <f>HLOOKUP(AA$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>186502.51554001553</v>
-      </c>
-      <c r="AB2" s="2">
-        <f>HLOOKUP(AB$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>182762.83993783992</v>
-      </c>
-      <c r="AC2" s="2">
-        <f>HLOOKUP(AC$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>179023.56740481738</v>
-      </c>
-      <c r="AD2" s="2">
-        <f>HLOOKUP(AD$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>175284.49640637139</v>
-      </c>
-      <c r="AE2" s="2">
-        <f>HLOOKUP(AE$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>171545.62694250193</v>
-      </c>
-      <c r="AF2" s="2">
-        <f>HLOOKUP(AF$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>167806.95901320901</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1240,122 +1064,26 @@
       </c>
       <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1267365.8403263404</v>
+        <v>1146737.6764763016</v>
       </c>
       <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1424462.3154623155</v>
+        <v>961228.60771173262</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1369769.0308857809</v>
+        <v>887107.86091686098</v>
       </c>
       <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1308505.1743395492</v>
+        <v>812999.8895687646</v>
       </c>
       <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1146737.6764763016</v>
+        <v>738909.48445998447</v>
       </c>
       <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1109641.7713675215</v>
-      </c>
-      <c r="I3" s="2">
-        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1072543.4708624708</v>
-      </c>
-      <c r="J3" s="2">
-        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1035441.9764957265</v>
-      </c>
-      <c r="K3" s="2">
-        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>998337.28826728824</v>
-      </c>
-      <c r="L3" s="2">
-        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>961228.60771173262</v>
-      </c>
-      <c r="M3" s="2">
-        <f>HLOOKUP(M$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>946403.50019425026</v>
-      </c>
-      <c r="N3" s="2">
-        <f>HLOOKUP(N$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>931579.19114219118</v>
-      </c>
-      <c r="O3" s="2">
-        <f>HLOOKUP(O$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>916754.8820901321</v>
-      </c>
-      <c r="P3" s="2">
-        <f>HLOOKUP(P$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>901930.57303807314</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>HLOOKUP(Q$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>887107.86091686098</v>
-      </c>
-      <c r="R3" s="2">
-        <f>HLOOKUP(R$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>872285.14879564871</v>
-      </c>
-      <c r="S3" s="2">
-        <f>HLOOKUP(S$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>857462.43667443667</v>
-      </c>
-      <c r="T3" s="2">
-        <f>HLOOKUP(T$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>842641.32148407155</v>
-      </c>
-      <c r="U3" s="2">
-        <f>HLOOKUP(U$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>827820.2062937062</v>
-      </c>
-      <c r="V3" s="2">
-        <f>HLOOKUP(V$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>812999.8895687646</v>
-      </c>
-      <c r="W3" s="2">
-        <f>HLOOKUP(W$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>798180.37130924629</v>
-      </c>
-      <c r="X3" s="2">
-        <f>HLOOKUP(X$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>783361.65151515149</v>
-      </c>
-      <c r="Y3" s="2">
-        <f>HLOOKUP(Y$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>768543.73018648021</v>
-      </c>
-      <c r="Z3" s="2">
-        <f>HLOOKUP(Z$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>753725.80885780882</v>
-      </c>
-      <c r="AA3" s="2">
-        <f>HLOOKUP(AA$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>738909.48445998447</v>
-      </c>
-      <c r="AB3" s="2">
-        <f>HLOOKUP(AB$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>724093.16006216011</v>
-      </c>
-      <c r="AC3" s="2">
-        <f>HLOOKUP(AC$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>709278.43259518256</v>
-      </c>
-      <c r="AD3" s="2">
-        <f>HLOOKUP(AD$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>694464.50359362864</v>
-      </c>
-      <c r="AE3" s="2">
-        <f>HLOOKUP(AE$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>679651.37305749801</v>
-      </c>
-      <c r="AF3" s="2">
-        <f>HLOOKUP(AF$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>664839.04098679102</v>
       </c>
     </row>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C954277A-DE0F-4459-987F-F365DC170FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10FD4FD-E6A9-4A57-827A-AD452318CF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7245" yWindow="3675" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,43 +985,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C2" sqref="C2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
       <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
         <v>2025</v>
       </c>
-      <c r="D1">
+      <c r="H1">
         <v>2030</v>
       </c>
-      <c r="E1">
+      <c r="I1">
         <v>2035</v>
       </c>
-      <c r="F1">
+      <c r="J1">
         <v>2040</v>
       </c>
-      <c r="G1">
+      <c r="K1">
         <v>2045</v>
       </c>
-      <c r="H1">
+      <c r="L1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1031,30 +1045,46 @@
       </c>
       <c r="C2" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>289439.32352369849</v>
+        <v>319886.15967365965</v>
       </c>
       <c r="D2" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>242616.39228826726</v>
+        <v>359537.68453768449</v>
       </c>
       <c r="E2" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>223908.13908313907</v>
+        <v>345732.96911421907</v>
       </c>
       <c r="F2" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>205203.11043123543</v>
+        <v>330269.82566045062</v>
       </c>
       <c r="G2" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>186502.51554001553</v>
+        <v>289439.32352369849</v>
       </c>
       <c r="H2" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>242616.39228826726</v>
+      </c>
+      <c r="I2" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>223908.13908313907</v>
+      </c>
+      <c r="J2" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205203.11043123543</v>
+      </c>
+      <c r="K2" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>186502.51554001553</v>
+      </c>
+      <c r="L2" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>167806.95901320901</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1064,26 +1094,42 @@
       </c>
       <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1146737.6764763016</v>
+        <v>1267365.8403263404</v>
       </c>
       <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>961228.60771173262</v>
+        <v>1424462.3154623155</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>887107.86091686098</v>
+        <v>1369769.0308857809</v>
       </c>
       <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>812999.8895687646</v>
+        <v>1308505.1743395492</v>
       </c>
       <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>738909.48445998447</v>
+        <v>1146737.6764763016</v>
       </c>
       <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>961228.60771173262</v>
+      </c>
+      <c r="I3" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>887107.86091686098</v>
+      </c>
+      <c r="J3" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>812999.8895687646</v>
+      </c>
+      <c r="K3" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>738909.48445998447</v>
+      </c>
+      <c r="L3" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>664839.04098679102</v>
       </c>
     </row>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10FD4FD-E6A9-4A57-827A-AD452318CF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF7A517-F95D-4F19-9022-33042E009515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="3675" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="2700" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -985,57 +985,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
       <c r="C1">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="D1">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E1">
-        <v>2023</v>
+        <v>2035</v>
       </c>
       <c r="F1">
-        <v>2024</v>
+        <v>2040</v>
       </c>
       <c r="G1">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="H1">
-        <v>2030</v>
-      </c>
-      <c r="I1">
-        <v>2035</v>
-      </c>
-      <c r="J1">
-        <v>2040</v>
-      </c>
-      <c r="K1">
-        <v>2045</v>
-      </c>
-      <c r="L1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1045,46 +1031,30 @@
       </c>
       <c r="C2" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>319886.15967365965</v>
+        <v>289439.32352369849</v>
       </c>
       <c r="D2" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>359537.68453768449</v>
+        <v>242616.39228826726</v>
       </c>
       <c r="E2" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>345732.96911421907</v>
+        <v>223908.13908313907</v>
       </c>
       <c r="F2" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>330269.82566045062</v>
+        <v>205203.11043123543</v>
       </c>
       <c r="G2" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>289439.32352369849</v>
+        <v>186502.51554001553</v>
       </c>
       <c r="H2" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>242616.39228826726</v>
-      </c>
-      <c r="I2" s="2">
-        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>223908.13908313907</v>
-      </c>
-      <c r="J2" s="2">
-        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>205203.11043123543</v>
-      </c>
-      <c r="K2" s="2">
-        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>186502.51554001553</v>
-      </c>
-      <c r="L2" s="2">
-        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>167806.95901320901</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1094,42 +1064,26 @@
       </c>
       <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1267365.8403263404</v>
+        <v>1146737.6764763016</v>
       </c>
       <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1424462.3154623155</v>
+        <v>961228.60771173262</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1369769.0308857809</v>
+        <v>887107.86091686098</v>
       </c>
       <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1308505.1743395492</v>
+        <v>812999.8895687646</v>
       </c>
       <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1146737.6764763016</v>
+        <v>738909.48445998447</v>
       </c>
       <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>961228.60771173262</v>
-      </c>
-      <c r="I3" s="2">
-        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>887107.86091686098</v>
-      </c>
-      <c r="J3" s="2">
-        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>812999.8895687646</v>
-      </c>
-      <c r="K3" s="2">
-        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>738909.48445998447</v>
-      </c>
-      <c r="L3" s="2">
-        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>664839.04098679102</v>
       </c>
     </row>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF7A517-F95D-4F19-9022-33042E009515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13016AC-A09B-41D3-AE0F-8EC8D9330D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6135" yWindow="2700" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13016AC-A09B-41D3-AE0F-8EC8D9330D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5F9AF4-0008-4790-9A8A-EBA63C2234DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="2700" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="1005" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -985,43 +985,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
       <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
         <v>2025</v>
       </c>
-      <c r="D1">
+      <c r="H1">
         <v>2030</v>
       </c>
-      <c r="E1">
+      <c r="I1">
         <v>2035</v>
       </c>
-      <c r="F1">
+      <c r="J1">
         <v>2040</v>
       </c>
-      <c r="G1">
+      <c r="K1">
         <v>2045</v>
       </c>
-      <c r="H1">
+      <c r="L1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1031,30 +1045,46 @@
       </c>
       <c r="C2" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>289439.32352369849</v>
+        <v>319886.15967365965</v>
       </c>
       <c r="D2" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>242616.39228826726</v>
+        <v>359537.68453768449</v>
       </c>
       <c r="E2" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>223908.13908313907</v>
+        <v>345732.96911421907</v>
       </c>
       <c r="F2" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>205203.11043123543</v>
+        <v>330269.82566045062</v>
       </c>
       <c r="G2" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>186502.51554001553</v>
+        <v>289439.32352369849</v>
       </c>
       <c r="H2" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>242616.39228826726</v>
+      </c>
+      <c r="I2" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>223908.13908313907</v>
+      </c>
+      <c r="J2" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205203.11043123543</v>
+      </c>
+      <c r="K2" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>186502.51554001553</v>
+      </c>
+      <c r="L2" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>167806.95901320901</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1064,26 +1094,42 @@
       </c>
       <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1146737.6764763016</v>
+        <v>1267365.8403263404</v>
       </c>
       <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>961228.60771173262</v>
+        <v>1424462.3154623155</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>887107.86091686098</v>
+        <v>1369769.0308857809</v>
       </c>
       <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>812999.8895687646</v>
+        <v>1308505.1743395492</v>
       </c>
       <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>738909.48445998447</v>
+        <v>1146737.6764763016</v>
       </c>
       <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>961228.60771173262</v>
+      </c>
+      <c r="I3" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>887107.86091686098</v>
+      </c>
+      <c r="J3" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>812999.8895687646</v>
+      </c>
+      <c r="K3" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>738909.48445998447</v>
+      </c>
+      <c r="L3" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>664839.04098679102</v>
       </c>
     </row>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5F9AF4-0008-4790-9A8A-EBA63C2234DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0F87A2-E684-452E-8AB4-DC347EE5F43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2625" yWindow="1005" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,10 +985,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,10 +997,11 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -1020,22 +1021,34 @@
         <v>2025</v>
       </c>
       <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
         <v>2030</v>
       </c>
-      <c r="I1">
+      <c r="M1">
         <v>2035</v>
       </c>
-      <c r="J1">
+      <c r="N1">
         <v>2040</v>
       </c>
-      <c r="K1">
+      <c r="O1">
         <v>2045</v>
       </c>
-      <c r="L1">
+      <c r="P1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1065,26 +1078,42 @@
       </c>
       <c r="H2" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>242616.39228826726</v>
+        <v>280076.22863247863</v>
       </c>
       <c r="I2" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>223908.13908313907</v>
+        <v>270712.52913752914</v>
       </c>
       <c r="J2" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>205203.11043123543</v>
+        <v>261348.02350427347</v>
       </c>
       <c r="K2" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>186502.51554001553</v>
+        <v>251982.7117327117</v>
       </c>
       <c r="L2" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>242616.39228826726</v>
+      </c>
+      <c r="M2" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>223908.13908313907</v>
+      </c>
+      <c r="N2" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205203.11043123543</v>
+      </c>
+      <c r="O2" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>186502.51554001553</v>
+      </c>
+      <c r="P2" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>167806.95901320901</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1114,22 +1143,38 @@
       </c>
       <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>961228.60771173262</v>
+        <v>1109641.7713675215</v>
       </c>
       <c r="I3" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>887107.86091686098</v>
+        <v>1072543.4708624708</v>
       </c>
       <c r="J3" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>812999.8895687646</v>
+        <v>1035441.9764957265</v>
       </c>
       <c r="K3" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>738909.48445998447</v>
+        <v>998337.28826728824</v>
       </c>
       <c r="L3" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>961228.60771173262</v>
+      </c>
+      <c r="M3" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>887107.86091686098</v>
+      </c>
+      <c r="N3" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>812999.8895687646</v>
+      </c>
+      <c r="O3" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>738909.48445998447</v>
+      </c>
+      <c r="P3" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>664839.04098679102</v>
       </c>
     </row>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0F87A2-E684-452E-8AB4-DC347EE5F43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB78CF62-A76B-4588-837E-5B371109FD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2625" yWindow="1005" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,7 +985,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
@@ -998,10 +998,12 @@
     <col min="3" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -1036,19 +1038,31 @@
         <v>2030</v>
       </c>
       <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
         <v>2035</v>
       </c>
-      <c r="N1">
+      <c r="R1">
         <v>2040</v>
       </c>
-      <c r="O1">
+      <c r="S1">
         <v>2045</v>
       </c>
-      <c r="P1">
+      <c r="T1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1098,22 +1112,38 @@
       </c>
       <c r="M2" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>223908.13908313907</v>
+        <v>238874.4998057498</v>
       </c>
       <c r="N2" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>205203.11043123543</v>
+        <v>235132.80885780885</v>
       </c>
       <c r="O2" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>186502.51554001553</v>
+        <v>231391.1179098679</v>
       </c>
       <c r="P2" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>227649.42696192695</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>223908.13908313907</v>
+      </c>
+      <c r="R2" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205203.11043123543</v>
+      </c>
+      <c r="S2" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>186502.51554001553</v>
+      </c>
+      <c r="T2" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>167806.95901320901</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1163,18 +1193,34 @@
       </c>
       <c r="M3" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>887107.86091686098</v>
+        <v>946403.50019425026</v>
       </c>
       <c r="N3" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>812999.8895687646</v>
+        <v>931579.19114219118</v>
       </c>
       <c r="O3" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>738909.48445998447</v>
+        <v>916754.8820901321</v>
       </c>
       <c r="P3" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>901930.57303807314</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>887107.86091686098</v>
+      </c>
+      <c r="R3" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>812999.8895687646</v>
+      </c>
+      <c r="S3" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>738909.48445998447</v>
+      </c>
+      <c r="T3" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>664839.04098679102</v>
       </c>
     </row>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB78CF62-A76B-4588-837E-5B371109FD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD098A6-0E5D-4F7E-88D9-922FFE8FE241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1005" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="1350" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD098A6-0E5D-4F7E-88D9-922FFE8FE241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4CA0EE-5EFA-4B28-870C-19C98AF65CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1350" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -985,10 +985,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,10 +1000,16 @@
     <col min="8" max="11" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="9.5703125" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="9.5703125" customWidth="1"/>
+    <col min="32" max="32" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -1053,16 +1059,52 @@
         <v>2035</v>
       </c>
       <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
         <v>2040</v>
       </c>
-      <c r="S1">
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
         <v>2045</v>
       </c>
-      <c r="T1">
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1132,18 +1174,66 @@
       </c>
       <c r="R2" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>205203.11043123543</v>
+        <v>220166.85120435117</v>
       </c>
       <c r="S2" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>186502.51554001553</v>
+        <v>216425.5633255633</v>
       </c>
       <c r="T2" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>212684.67851592851</v>
+      </c>
+      <c r="U2" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>208943.79370629365</v>
+      </c>
+      <c r="V2" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205203.11043123543</v>
+      </c>
+      <c r="W2" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>201462.62869075369</v>
+      </c>
+      <c r="X2" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>197722.34848484848</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>193982.26981351979</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>190242.19114219112</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>186502.51554001553</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>182762.83993783992</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>179023.56740481738</v>
+      </c>
+      <c r="AD2" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>175284.49640637139</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>171545.62694250193</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>167806.95901320901</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1213,14 +1303,62 @@
       </c>
       <c r="R3" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>812999.8895687646</v>
+        <v>872285.14879564871</v>
       </c>
       <c r="S3" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>738909.48445998447</v>
+        <v>857462.43667443667</v>
       </c>
       <c r="T3" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>842641.32148407155</v>
+      </c>
+      <c r="U3" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>827820.2062937062</v>
+      </c>
+      <c r="V3" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>812999.8895687646</v>
+      </c>
+      <c r="W3" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>798180.37130924629</v>
+      </c>
+      <c r="X3" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>783361.65151515149</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>768543.73018648021</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>753725.80885780882</v>
+      </c>
+      <c r="AA3" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>738909.48445998447</v>
+      </c>
+      <c r="AB3" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>724093.16006216011</v>
+      </c>
+      <c r="AC3" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>709278.43259518256</v>
+      </c>
+      <c r="AD3" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>694464.50359362864</v>
+      </c>
+      <c r="AE3" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>679651.37305749801</v>
+      </c>
+      <c r="AF3" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>664839.04098679102</v>
       </c>
     </row>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4CA0EE-5EFA-4B28-870C-19C98AF65CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C77D9A-8F53-4966-97BD-CD83EF8F2A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,11 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1BF002-C479-4585-BB53-0E4A987995C6}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -985,11 +993,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AE3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1007,9 +1013,11 @@
     <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="31" width="9.5703125" customWidth="1"/>
     <col min="32" max="32" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -1103,8 +1111,23 @@
       <c r="AF1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG1" s="4">
+        <v>2051</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>2050</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>2050</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>2050</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1232,8 +1255,23 @@
         <f>HLOOKUP(AF$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>167806.95901320901</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" s="5">
+        <v>167806.95901320901</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>167806.95901320901</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>167806.95901320901</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>167806.95901320901</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>167806.95901320901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1359,6 +1397,21 @@
       </c>
       <c r="AF3" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>664839.04098679102</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>664839.04098679102</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>664839.04098679102</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>664839.04098679102</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>664839.04098679102</v>
+      </c>
+      <c r="AK3" s="5">
         <v>664839.04098679102</v>
       </c>
     </row>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C77D9A-8F53-4966-97BD-CD83EF8F2A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042377F2-D5D1-4B25-9B16-90696D870F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -995,7 +995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1115,16 +1117,16 @@
         <v>2051</v>
       </c>
       <c r="AH1" s="4">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="AI1" s="4">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="AJ1" s="4">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="AK1" s="4">
-        <v>2050</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Shared ESS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042377F2-D5D1-4B25-9B16-90696D870F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342001DB-DD4F-4714-B947-1DF8C5E799C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
-    <sheet name="Investment Cost NREL" sheetId="4" r:id="rId2"/>
+    <sheet name="Conversion rate" sheetId="83" r:id="rId2"/>
     <sheet name="Cost breakdown NREL" sheetId="82" r:id="rId3"/>
-    <sheet name="Investment Cost" sheetId="5" r:id="rId4"/>
+    <sheet name="Investment Cost NREL, USD" sheetId="4" r:id="rId4"/>
+    <sheet name="Investment Cost NREL, EUR" sheetId="84" r:id="rId5"/>
+    <sheet name="Investment Cost" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>numScenarios</t>
   </si>
@@ -72,12 +74,6 @@
   </si>
   <si>
     <t>High Scenario</t>
-  </si>
-  <si>
-    <t>S, [$/MVA]</t>
-  </si>
-  <si>
-    <t>E, [$, MWh]</t>
   </si>
   <si>
     <t>Li-Ion Battery cabinet</t>
@@ -108,6 +104,21 @@
   </si>
   <si>
     <t>Battery central inverter</t>
+  </si>
+  <si>
+    <t>Conversion rate</t>
+  </si>
+  <si>
+    <t>Value, [$/€]</t>
+  </si>
+  <si>
+    <t>S, [€/MVA]</t>
+  </si>
+  <si>
+    <t>E, [€, MWh]</t>
+  </si>
+  <si>
+    <t>Total Cost (4-h System), [€/KWh]</t>
   </si>
 </sst>
 </file>
@@ -155,13 +166,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,9 +472,9 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,408 +500,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1BF002-C479-4585-BB53-0E4A987995C6}">
-  <dimension ref="A1:AF4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7614B8E9-E001-4C19-AEEE-8FBC4B48A529}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
-      </c>
-      <c r="D1">
-        <v>2022</v>
-      </c>
-      <c r="E1">
-        <v>2023</v>
-      </c>
-      <c r="F1">
-        <v>2024</v>
-      </c>
-      <c r="G1">
-        <v>2025</v>
-      </c>
-      <c r="H1">
-        <v>2026</v>
-      </c>
-      <c r="I1">
-        <v>2027</v>
-      </c>
-      <c r="J1">
-        <v>2028</v>
-      </c>
-      <c r="K1">
-        <v>2029</v>
-      </c>
-      <c r="L1">
-        <v>2030</v>
-      </c>
-      <c r="M1">
-        <v>2031</v>
-      </c>
-      <c r="N1">
-        <v>2032</v>
-      </c>
-      <c r="O1">
-        <v>2033</v>
-      </c>
-      <c r="P1">
-        <v>2034</v>
-      </c>
-      <c r="Q1">
-        <v>2035</v>
-      </c>
-      <c r="R1">
-        <v>2036</v>
-      </c>
-      <c r="S1">
-        <v>2037</v>
-      </c>
-      <c r="T1">
-        <v>2038</v>
-      </c>
-      <c r="U1">
-        <v>2039</v>
-      </c>
-      <c r="V1">
-        <v>2040</v>
-      </c>
-      <c r="W1">
-        <v>2041</v>
-      </c>
-      <c r="X1">
-        <v>2042</v>
-      </c>
-      <c r="Y1">
-        <v>2043</v>
-      </c>
-      <c r="Z1">
-        <v>2044</v>
-      </c>
-      <c r="AA1">
-        <v>2045</v>
-      </c>
-      <c r="AB1">
-        <v>2046</v>
-      </c>
-      <c r="AC1">
-        <v>2047</v>
-      </c>
-      <c r="AD1">
-        <v>2048</v>
-      </c>
-      <c r="AE1">
-        <v>2049</v>
-      </c>
-      <c r="AF1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1587.252</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1587.252</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1784</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1283.4090000000001</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1211.3689999999999</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1149.7380000000001</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1100.9359999999999</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1052.134</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1003.332</v>
-      </c>
-      <c r="K2" s="2">
-        <v>954.52800000000002</v>
-      </c>
-      <c r="L2" s="2">
-        <v>905.74199999999996</v>
-      </c>
-      <c r="M2" s="2">
-        <v>889.86099999999999</v>
-      </c>
-      <c r="N2" s="2">
-        <v>873.98</v>
-      </c>
-      <c r="O2" s="2">
-        <v>858.08399999999995</v>
-      </c>
-      <c r="P2" s="2">
-        <v>842.20399999999995</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>826.34</v>
-      </c>
-      <c r="R2" s="2">
-        <v>810.44299999999998</v>
-      </c>
-      <c r="S2" s="2">
-        <v>794.56299999999999</v>
-      </c>
-      <c r="T2" s="2">
-        <v>778.68200000000002</v>
-      </c>
-      <c r="U2" s="2">
-        <v>762.80200000000002</v>
-      </c>
-      <c r="V2" s="2">
-        <v>746.90499999999997</v>
-      </c>
-      <c r="W2" s="2">
-        <v>731.02499999999998</v>
-      </c>
-      <c r="X2" s="2">
-        <v>715.16099999999994</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>699.28099999999995</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>683.38400000000001</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>667.50300000000004</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>651.62300000000005</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>635.74199999999996</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>619.84500000000003</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>603.96500000000003</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>588.10199999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1587.252</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1587.252</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1784</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1715.502</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1638.7750000000001</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1436.1769999999999</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1389.7180000000001</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1343.2560000000001</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1296.79</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1250.32</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1203.845</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1185.278</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1166.712</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1148.146</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1129.58</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1111.0160000000001</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1092.452</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1073.8879999999999</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1055.326</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1036.7639999999999</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1018.203</v>
-      </c>
-      <c r="W3" s="2">
-        <v>999.64300000000003</v>
-      </c>
-      <c r="X3" s="2">
-        <v>981.08399999999995</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>962.52599999999995</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>943.96799999999996</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>925.41200000000003</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>906.85599999999999</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>888.30200000000002</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>869.74900000000002</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>851.197</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>832.64599999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1587.252</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1587.252</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1784</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1850.08</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1863.288</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1836.8510000000001</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1768.0609999999999</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1699.2719999999999</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1630.4839999999999</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1561.6969999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1492.9110000000001</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1482.69</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1472.4680000000001</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1462.2460000000001</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1452.0250000000001</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1441.8030000000001</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1431.5809999999999</v>
-      </c>
-      <c r="S4" s="2">
-        <v>1421.36</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1411.1379999999999</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1400.9169999999999</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1390.6949999999999</v>
-      </c>
-      <c r="W4" s="2">
-        <v>1380.473</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1370.252</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1360.03</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>1349.808</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>1339.587</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>1329.365</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>1319.143</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>1308.922</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>1298.7</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>1288.4780000000001</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0819000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -904,82 +535,82 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>270.22000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>5.69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>20.94</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>11.73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>44.84</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>23.09</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>10.95</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>24.38</v>
@@ -992,34 +623,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:AK3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1BF002-C479-4585-BB53-0E4A987995C6}">
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="9.5703125" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="9.5703125" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="9.5703125" customWidth="1"/>
-    <col min="32" max="32" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1">
         <v>2020</v>
       </c>
@@ -1113,308 +732,1186 @@
       <c r="AF1">
         <v>2050</v>
       </c>
-      <c r="AG1" s="4">
-        <v>2051</v>
-      </c>
-      <c r="AH1" s="4">
-        <v>2052</v>
-      </c>
-      <c r="AI1" s="4">
-        <v>2053</v>
-      </c>
-      <c r="AJ1" s="4">
-        <v>2054</v>
-      </c>
-      <c r="AK1" s="4">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1587.252</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1587.252</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1784</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1283.4090000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1211.3689999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1149.7380000000001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1100.9359999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1052.134</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1003.332</v>
+      </c>
+      <c r="K2" s="2">
+        <v>954.52800000000002</v>
+      </c>
+      <c r="L2" s="2">
+        <v>905.74199999999996</v>
+      </c>
+      <c r="M2" s="2">
+        <v>889.86099999999999</v>
+      </c>
+      <c r="N2" s="2">
+        <v>873.98</v>
+      </c>
+      <c r="O2" s="2">
+        <v>858.08399999999995</v>
+      </c>
+      <c r="P2" s="2">
+        <v>842.20399999999995</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>826.34</v>
+      </c>
+      <c r="R2" s="2">
+        <v>810.44299999999998</v>
+      </c>
+      <c r="S2" s="2">
+        <v>794.56299999999999</v>
+      </c>
+      <c r="T2" s="2">
+        <v>778.68200000000002</v>
+      </c>
+      <c r="U2" s="2">
+        <v>762.80200000000002</v>
+      </c>
+      <c r="V2" s="2">
+        <v>746.90499999999997</v>
+      </c>
+      <c r="W2" s="2">
+        <v>731.02499999999998</v>
+      </c>
+      <c r="X2" s="2">
+        <v>715.16099999999994</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>699.28099999999995</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>683.38400000000001</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>667.50300000000004</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>651.62300000000005</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>635.74199999999996</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>619.84500000000003</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>603.96500000000003</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>588.10199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1587.252</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1587.252</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1784</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1715.502</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1638.7750000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1436.1769999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1389.7180000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1343.2560000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1296.79</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1250.32</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1203.845</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1185.278</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1166.712</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1148.146</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1129.58</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1111.0160000000001</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1092.452</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1073.8879999999999</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1055.326</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1036.7639999999999</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1018.203</v>
+      </c>
+      <c r="W3" s="2">
+        <v>999.64300000000003</v>
+      </c>
+      <c r="X3" s="2">
+        <v>981.08399999999995</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>962.52599999999995</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>943.96799999999996</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>925.41200000000003</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>906.85599999999999</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>888.30200000000002</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>869.74900000000002</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>851.197</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>832.64599999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1587.252</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1587.252</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1784</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1850.08</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1863.288</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1836.8510000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1768.0609999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1699.2719999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1630.4839999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1561.6969999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1492.9110000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1482.69</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1472.4680000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1462.2460000000001</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1452.0250000000001</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1441.8030000000001</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1431.5809999999999</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1421.36</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1411.1379999999999</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1400.9169999999999</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1390.6949999999999</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1380.473</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1370.252</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1360.03</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1349.808</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1339.587</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1329.365</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1319.143</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1308.922</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1298.7</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1288.4780000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A2E7FA-B63A-489C-AACF-5835B538C347}">
+  <dimension ref="A1:AF4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:AF4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
+        <v>2030</v>
+      </c>
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
+        <v>2040</v>
+      </c>
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <f>'Investment Cost NREL, USD'!B2/'Conversion rate'!$B$2</f>
+        <v>1467.0967741935483</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'Investment Cost NREL, USD'!C2/'Conversion rate'!$B$2</f>
+        <v>1467.0967741935483</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'Investment Cost NREL, USD'!D2/'Conversion rate'!$B$2</f>
+        <v>1648.9509196783436</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'Investment Cost NREL, USD'!E2/'Conversion rate'!$B$2</f>
+        <v>1186.2547370366947</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'Investment Cost NREL, USD'!F2/'Conversion rate'!$B$2</f>
+        <v>1119.66817635641</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'Investment Cost NREL, USD'!G2/'Conversion rate'!$B$2</f>
+        <v>1062.702652740549</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'Investment Cost NREL, USD'!H2/'Conversion rate'!$B$2</f>
+        <v>1017.5949718088547</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'Investment Cost NREL, USD'!I2/'Conversion rate'!$B$2</f>
+        <v>972.48729087716049</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'Investment Cost NREL, USD'!J2/'Conversion rate'!$B$2</f>
+        <v>927.3796099454662</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'Investment Cost NREL, USD'!K2/'Conversion rate'!$B$2</f>
+        <v>882.27008041408624</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'Investment Cost NREL, USD'!L2/'Conversion rate'!$B$2</f>
+        <v>837.1771882798779</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'Investment Cost NREL, USD'!M2/'Conversion rate'!$B$2</f>
+        <v>822.49838247527487</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'Investment Cost NREL, USD'!N2/'Conversion rate'!$B$2</f>
+        <v>807.81957667067195</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'Investment Cost NREL, USD'!O2/'Conversion rate'!$B$2</f>
+        <v>793.12690636842581</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'Investment Cost NREL, USD'!P2/'Conversion rate'!$B$2</f>
+        <v>778.44902486366561</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'Investment Cost NREL, USD'!Q2/'Conversion rate'!$B$2</f>
+        <v>763.78593215639148</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'Investment Cost NREL, USD'!R2/'Conversion rate'!$B$2</f>
+        <v>749.0923375543025</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'Investment Cost NREL, USD'!S2/'Conversion rate'!$B$2</f>
+        <v>734.41445604954242</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'Investment Cost NREL, USD'!T2/'Conversion rate'!$B$2</f>
+        <v>719.73565024493939</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'Investment Cost NREL, USD'!U2/'Conversion rate'!$B$2</f>
+        <v>705.05776874017931</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'Investment Cost NREL, USD'!V2/'Conversion rate'!$B$2</f>
+        <v>690.36417413809033</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'Investment Cost NREL, USD'!W2/'Conversion rate'!$B$2</f>
+        <v>675.68629263333014</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'Investment Cost NREL, USD'!X2/'Conversion rate'!$B$2</f>
+        <v>661.0231999260559</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'Investment Cost NREL, USD'!Y2/'Conversion rate'!$B$2</f>
+        <v>646.34531842129581</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>'Investment Cost NREL, USD'!Z2/'Conversion rate'!$B$2</f>
+        <v>631.65172381920695</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>'Investment Cost NREL, USD'!AA2/'Conversion rate'!$B$2</f>
+        <v>616.97291801460392</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>'Investment Cost NREL, USD'!AB2/'Conversion rate'!$B$2</f>
+        <v>602.29503650984384</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>'Investment Cost NREL, USD'!AC2/'Conversion rate'!$B$2</f>
+        <v>587.6162307052407</v>
+      </c>
+      <c r="AD2" s="2">
+        <f>'Investment Cost NREL, USD'!AD2/'Conversion rate'!$B$2</f>
+        <v>572.92263610315183</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>'Investment Cost NREL, USD'!AE2/'Conversion rate'!$B$2</f>
+        <v>558.24475459839175</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>'Investment Cost NREL, USD'!AF2/'Conversion rate'!$B$2</f>
+        <v>543.58258619096023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <f>'Investment Cost NREL, USD'!B3/'Conversion rate'!$B$2</f>
+        <v>1467.0967741935483</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'Investment Cost NREL, USD'!C3/'Conversion rate'!$B$2</f>
+        <v>1467.0967741935483</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'Investment Cost NREL, USD'!D3/'Conversion rate'!$B$2</f>
+        <v>1648.9509196783436</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'Investment Cost NREL, USD'!E3/'Conversion rate'!$B$2</f>
+        <v>1585.6382290415008</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'Investment Cost NREL, USD'!F3/'Conversion rate'!$B$2</f>
+        <v>1514.7194749976893</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'Investment Cost NREL, USD'!G3/'Conversion rate'!$B$2</f>
+        <v>1327.45817543211</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'Investment Cost NREL, USD'!H3/'Conversion rate'!$B$2</f>
+        <v>1284.516129032258</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'Investment Cost NREL, USD'!I3/'Conversion rate'!$B$2</f>
+        <v>1241.5713097328774</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'Investment Cost NREL, USD'!J3/'Conversion rate'!$B$2</f>
+        <v>1198.6227932341251</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'Investment Cost NREL, USD'!K3/'Conversion rate'!$B$2</f>
+        <v>1155.6705795360012</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'Investment Cost NREL, USD'!L3/'Conversion rate'!$B$2</f>
+        <v>1112.7137443386634</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'Investment Cost NREL, USD'!M3/'Conversion rate'!$B$2</f>
+        <v>1095.5522691561141</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'Investment Cost NREL, USD'!N3/'Conversion rate'!$B$2</f>
+        <v>1078.3917182734078</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'Investment Cost NREL, USD'!O3/'Conversion rate'!$B$2</f>
+        <v>1061.2311673907013</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'Investment Cost NREL, USD'!P3/'Conversion rate'!$B$2</f>
+        <v>1044.0706165079951</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'Investment Cost NREL, USD'!Q3/'Conversion rate'!$B$2</f>
+        <v>1026.9119142249747</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'Investment Cost NREL, USD'!R3/'Conversion rate'!$B$2</f>
+        <v>1009.7532119419539</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'Investment Cost NREL, USD'!S3/'Conversion rate'!$B$2</f>
+        <v>992.59450965893325</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'Investment Cost NREL, USD'!T3/'Conversion rate'!$B$2</f>
+        <v>975.43765597559843</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'Investment Cost NREL, USD'!U3/'Conversion rate'!$B$2</f>
+        <v>958.28080229226339</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'Investment Cost NREL, USD'!V3/'Conversion rate'!$B$2</f>
+        <v>941.12487290877152</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'Investment Cost NREL, USD'!W3/'Conversion rate'!$B$2</f>
+        <v>923.96986782512238</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'Investment Cost NREL, USD'!X3/'Conversion rate'!$B$2</f>
+        <v>906.81578704131607</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'Investment Cost NREL, USD'!Y3/'Conversion rate'!$B$2</f>
+        <v>889.66263055735271</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>'Investment Cost NREL, USD'!Z3/'Conversion rate'!$B$2</f>
+        <v>872.50947407338936</v>
+      </c>
+      <c r="AA3" s="2">
+        <f>'Investment Cost NREL, USD'!AA3/'Conversion rate'!$B$2</f>
+        <v>855.35816618911167</v>
+      </c>
+      <c r="AB3" s="2">
+        <f>'Investment Cost NREL, USD'!AB3/'Conversion rate'!$B$2</f>
+        <v>838.20685830483399</v>
+      </c>
+      <c r="AC3" s="2">
+        <f>'Investment Cost NREL, USD'!AC3/'Conversion rate'!$B$2</f>
+        <v>821.05739902024209</v>
+      </c>
+      <c r="AD3" s="2">
+        <f>'Investment Cost NREL, USD'!AD3/'Conversion rate'!$B$2</f>
+        <v>803.90886403549302</v>
+      </c>
+      <c r="AE3" s="2">
+        <f>'Investment Cost NREL, USD'!AE3/'Conversion rate'!$B$2</f>
+        <v>786.76125335058691</v>
+      </c>
+      <c r="AF3" s="2">
+        <f>'Investment Cost NREL, USD'!AF3/'Conversion rate'!$B$2</f>
+        <v>769.61456696552352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <f>'Investment Cost NREL, USD'!B4/'Conversion rate'!$B$2</f>
+        <v>1467.0967741935483</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'Investment Cost NREL, USD'!C4/'Conversion rate'!$B$2</f>
+        <v>1467.0967741935483</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'Investment Cost NREL, USD'!D4/'Conversion rate'!$B$2</f>
+        <v>1648.9509196783436</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'Investment Cost NREL, USD'!E4/'Conversion rate'!$B$2</f>
+        <v>1710.0286532951288</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'Investment Cost NREL, USD'!F4/'Conversion rate'!$B$2</f>
+        <v>1722.2368056197429</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'Investment Cost NREL, USD'!G4/'Conversion rate'!$B$2</f>
+        <v>1697.8010906738145</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'Investment Cost NREL, USD'!H4/'Conversion rate'!$B$2</f>
+        <v>1634.2185044828541</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'Investment Cost NREL, USD'!I4/'Conversion rate'!$B$2</f>
+        <v>1570.6368425917365</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'Investment Cost NREL, USD'!J4/'Conversion rate'!$B$2</f>
+        <v>1507.0561050004619</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'Investment Cost NREL, USD'!K4/'Conversion rate'!$B$2</f>
+        <v>1443.4762917090302</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'Investment Cost NREL, USD'!L4/'Conversion rate'!$B$2</f>
+        <v>1379.8974027174415</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'Investment Cost NREL, USD'!M4/'Conversion rate'!$B$2</f>
+        <v>1370.4501340234772</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'Investment Cost NREL, USD'!N4/'Conversion rate'!$B$2</f>
+        <v>1361.00194102967</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'Investment Cost NREL, USD'!O4/'Conversion rate'!$B$2</f>
+        <v>1351.5537480358628</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'Investment Cost NREL, USD'!P4/'Conversion rate'!$B$2</f>
+        <v>1342.1064793418984</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'Investment Cost NREL, USD'!Q4/'Conversion rate'!$B$2</f>
+        <v>1332.6582863480912</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'Investment Cost NREL, USD'!R4/'Conversion rate'!$B$2</f>
+        <v>1323.210093354284</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'Investment Cost NREL, USD'!S4/'Conversion rate'!$B$2</f>
+        <v>1313.7628246603197</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'Investment Cost NREL, USD'!T4/'Conversion rate'!$B$2</f>
+        <v>1304.3146316665125</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'Investment Cost NREL, USD'!U4/'Conversion rate'!$B$2</f>
+        <v>1294.8673629725481</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'Investment Cost NREL, USD'!V4/'Conversion rate'!$B$2</f>
+        <v>1285.4191699787409</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'Investment Cost NREL, USD'!W4/'Conversion rate'!$B$2</f>
+        <v>1275.9709769849337</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'Investment Cost NREL, USD'!X4/'Conversion rate'!$B$2</f>
+        <v>1266.5237082909694</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'Investment Cost NREL, USD'!Y4/'Conversion rate'!$B$2</f>
+        <v>1257.0755152971624</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>'Investment Cost NREL, USD'!Z4/'Conversion rate'!$B$2</f>
+        <v>1247.6273223033552</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>'Investment Cost NREL, USD'!AA4/'Conversion rate'!$B$2</f>
+        <v>1238.1800536093908</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>'Investment Cost NREL, USD'!AB4/'Conversion rate'!$B$2</f>
+        <v>1228.7318606155836</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>'Investment Cost NREL, USD'!AC4/'Conversion rate'!$B$2</f>
+        <v>1219.2836676217764</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>'Investment Cost NREL, USD'!AD4/'Conversion rate'!$B$2</f>
+        <v>1209.8363989278121</v>
+      </c>
+      <c r="AE4" s="2">
+        <f>'Investment Cost NREL, USD'!AE4/'Conversion rate'!$B$2</f>
+        <v>1200.3882059340049</v>
+      </c>
+      <c r="AF4" s="2">
+        <f>'Investment Cost NREL, USD'!AF4/'Conversion rate'!$B$2</f>
+        <v>1190.9400129401977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.5546875" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="9.5546875" customWidth="1"/>
+    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="9.5546875" customWidth="1"/>
+    <col min="32" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
+        <v>2030</v>
+      </c>
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
+        <v>2040</v>
+      </c>
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2">
-        <f>HLOOKUP(B$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>319886.15967365965</v>
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>295670.72712234</v>
       </c>
       <c r="C2" s="2">
-        <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>319886.15967365965</v>
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>295670.72712234</v>
       </c>
       <c r="D2" s="2">
-        <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>359537.68453768449</v>
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>332320.6253236754</v>
       </c>
       <c r="E2" s="2">
-        <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>345732.96911421907</v>
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>319560.92902691476</v>
       </c>
       <c r="F2" s="2">
-        <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>330269.82566045062</v>
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>305268.34796233533</v>
       </c>
       <c r="G2" s="2">
-        <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>289439.32352369849</v>
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>267528.72125307191</v>
       </c>
       <c r="H2" s="2">
-        <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>280076.22863247863</v>
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>258874.41411634957</v>
       </c>
       <c r="I2" s="2">
-        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>270712.52913752914</v>
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>250219.54814449497</v>
       </c>
       <c r="J2" s="2">
-        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>261348.02350427347</v>
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>241563.93705913064</v>
       </c>
       <c r="K2" s="2">
-        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>251982.7117327117</v>
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>232907.58086025662</v>
       </c>
       <c r="L2" s="2">
-        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>242616.39228826726</v>
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>224250.2932694956</v>
       </c>
       <c r="M2" s="2">
-        <f>HLOOKUP(M$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>238874.4998057498</v>
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>220791.66263587188</v>
       </c>
       <c r="N2" s="2">
-        <f>HLOOKUP(N$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>235132.80885780885</v>
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>217333.21828062556</v>
       </c>
       <c r="O2" s="2">
-        <f>HLOOKUP(O$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>231391.1179098679</v>
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>213874.77392537927</v>
       </c>
       <c r="P2" s="2">
-        <f>HLOOKUP(P$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>227649.42696192695</v>
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>210416.32957013301</v>
       </c>
       <c r="Q2" s="2">
-        <f>HLOOKUP(Q$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>223908.13908313907</v>
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>206958.25777164166</v>
       </c>
       <c r="R2" s="2">
-        <f>HLOOKUP(R$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>220166.85120435117</v>
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>203500.18597315016</v>
       </c>
       <c r="S2" s="2">
-        <f>HLOOKUP(S$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>216425.5633255633</v>
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>200042.11417465872</v>
       </c>
       <c r="T2" s="2">
-        <f>HLOOKUP(T$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>212684.67851592851</v>
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>196584.41493292214</v>
       </c>
       <c r="U2" s="2">
-        <f>HLOOKUP(U$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>208943.79370629365</v>
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>193126.71569118553</v>
       </c>
       <c r="V2" s="2">
-        <f>HLOOKUP(V$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>205203.11043123543</v>
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>189669.20272782643</v>
       </c>
       <c r="W2" s="2">
-        <f>HLOOKUP(W$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>201462.62869075369</v>
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>186211.8760428447</v>
       </c>
       <c r="X2" s="2">
-        <f>HLOOKUP(X$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>197722.34848484848</v>
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>182754.73563624034</v>
       </c>
       <c r="Y2" s="2">
-        <f>HLOOKUP(Y$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>193982.26981351979</v>
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>179297.78150801346</v>
       </c>
       <c r="Z2" s="2">
-        <f>HLOOKUP(Z$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>190242.19114219112</v>
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>175840.82737978661</v>
       </c>
       <c r="AA2" s="2">
-        <f>HLOOKUP(AA$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>186502.51554001553</v>
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>172384.24580831456</v>
       </c>
       <c r="AB2" s="2">
-        <f>HLOOKUP(AB$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>182762.83993783992</v>
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>168927.66423684251</v>
       </c>
       <c r="AC2" s="2">
-        <f>HLOOKUP(AC$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>179023.56740481738</v>
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>165471.45522212531</v>
       </c>
       <c r="AD2" s="2">
-        <f>HLOOKUP(AD$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>175284.49640637139</v>
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>162015.43248578554</v>
       </c>
       <c r="AE2" s="2">
-        <f>HLOOKUP(AE$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>171545.62694250193</v>
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>158559.59602782319</v>
       </c>
       <c r="AF2" s="2">
-        <f>HLOOKUP(AF$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>167806.95901320901</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>167806.95901320901</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>167806.95901320901</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>167806.95901320901</v>
-      </c>
-      <c r="AJ2" s="5">
-        <v>167806.95901320901</v>
-      </c>
-      <c r="AK2" s="5">
-        <v>167806.95901320901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>155103.94584823828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
-        <f>HLOOKUP(B$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1267365.8403263404</v>
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>292856.51176780206</v>
       </c>
       <c r="C3" s="2">
-        <f>HLOOKUP(C$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1267365.8403263404</v>
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>292856.51176780206</v>
       </c>
       <c r="D3" s="2">
-        <f>HLOOKUP(D$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1424462.3154623155</v>
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>329157.57358866697</v>
       </c>
       <c r="E3" s="2">
-        <f>HLOOKUP(E$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1369769.0308857809</v>
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>316519.32500364655</v>
       </c>
       <c r="F3" s="2">
-        <f>HLOOKUP(F$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1308505.1743395492</v>
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>302362.78175883851</v>
       </c>
       <c r="G3" s="2">
-        <f>HLOOKUP(G$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1146737.6764763016</v>
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>264982.36354475952</v>
       </c>
       <c r="H3" s="2">
-        <f>HLOOKUP(H$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1109641.7713675215</v>
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>256410.4287289771</v>
       </c>
       <c r="I3" s="2">
-        <f>HLOOKUP(I$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1072543.4708624708</v>
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>247837.9403970956</v>
       </c>
       <c r="J3" s="2">
-        <f>HLOOKUP(J$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>1035441.9764957265</v>
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>239264.71404374859</v>
       </c>
       <c r="K3" s="2">
-        <f>HLOOKUP(K$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>998337.28826728824</v>
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>230690.74966893613</v>
       </c>
       <c r="L3" s="2">
-        <f>HLOOKUP(L$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>961228.60771173262</v>
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>222115.86276729195</v>
       </c>
       <c r="M3" s="2">
-        <f>HLOOKUP(M$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>946403.50019425026</v>
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>218690.15163006057</v>
       </c>
       <c r="N3" s="2">
-        <f>HLOOKUP(N$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>931579.19114219118</v>
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>215264.62499819553</v>
       </c>
       <c r="O3" s="2">
-        <f>HLOOKUP(O$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>916754.8820901321</v>
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>211839.09836633052</v>
       </c>
       <c r="P3" s="2">
-        <f>HLOOKUP(P$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>901930.57303807314</v>
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>208413.57173446551</v>
       </c>
       <c r="Q3" s="2">
-        <f>HLOOKUP(Q$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>887107.86091686098</v>
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>204988.41411333327</v>
       </c>
       <c r="R3" s="2">
-        <f>HLOOKUP(R$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>872285.14879564871</v>
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>201563.25649220095</v>
       </c>
       <c r="S3" s="2">
-        <f>HLOOKUP(S$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>857462.43667443667</v>
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>198138.09887106865</v>
       </c>
       <c r="T3" s="2">
-        <f>HLOOKUP(T$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>842641.32148407155</v>
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>194713.31026066907</v>
       </c>
       <c r="U3" s="2">
-        <f>HLOOKUP(U$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>827820.2062937062</v>
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>191288.52165026945</v>
       </c>
       <c r="V3" s="2">
-        <f>HLOOKUP(V$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>812999.8895687646</v>
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>187863.91754523627</v>
       </c>
       <c r="W3" s="2">
-        <f>HLOOKUP(W$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>798180.37130924629</v>
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>184439.49794556946</v>
       </c>
       <c r="X3" s="2">
-        <f>HLOOKUP(X$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>783361.65151515149</v>
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>181015.26285126893</v>
       </c>
       <c r="Y3" s="2">
-        <f>HLOOKUP(Y$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>768543.73018648021</v>
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>177591.2122623348</v>
       </c>
       <c r="Z3" s="2">
-        <f>HLOOKUP(Z$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>753725.80885780882</v>
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>174167.1616734007</v>
       </c>
       <c r="AA3" s="2">
-        <f>HLOOKUP(AA$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>738909.48445998447</v>
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>170743.48009519925</v>
       </c>
       <c r="AB3" s="2">
-        <f>HLOOKUP(AB$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>724093.16006216011</v>
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>167319.79851699786</v>
       </c>
       <c r="AC3" s="2">
-        <f>HLOOKUP(AC$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>709278.43259518256</v>
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>163896.48594952916</v>
       </c>
       <c r="AD3" s="2">
-        <f>HLOOKUP(AD$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>694464.50359362864</v>
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>160473.35788742686</v>
       </c>
       <c r="AE3" s="2">
-        <f>HLOOKUP(AE$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>679651.37305749801</v>
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>157050.41433069092</v>
       </c>
       <c r="AF3" s="2">
-        <f>HLOOKUP(AF$1,'Investment Cost NREL'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>664839.04098679102</v>
-      </c>
-      <c r="AG3" s="5">
-        <v>664839.04098679102</v>
-      </c>
-      <c r="AH3" s="5">
-        <v>664839.04098679102</v>
-      </c>
-      <c r="AI3" s="5">
-        <v>664839.04098679102</v>
-      </c>
-      <c r="AJ3" s="5">
-        <v>664839.04098679102</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>664839.04098679102</v>
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>153627.6552793213</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
+++ b/data/IEEE9/Shared ESS/ieee9_ESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Shared ESS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342001DB-DD4F-4714-B947-1DF8C5E799C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD963971-29F5-4B35-A07C-12DB4A529309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="81" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Cost breakdown NREL" sheetId="82" r:id="rId3"/>
     <sheet name="Investment Cost NREL, USD" sheetId="4" r:id="rId4"/>
     <sheet name="Investment Cost NREL, EUR" sheetId="84" r:id="rId5"/>
-    <sheet name="Investment Cost" sheetId="5" r:id="rId6"/>
+    <sheet name="Investment Cost, Power" sheetId="5" r:id="rId6"/>
+    <sheet name="Investment Cost, Energy" sheetId="85" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>numScenarios</t>
   </si>
@@ -120,15 +121,30 @@
   <si>
     <t>Total Cost (4-h System), [€/KWh]</t>
   </si>
+  <si>
+    <t>Scenario 1</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,12 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E7A88E-2477-46FD-BE5E-2BB647C1CD4A}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +521,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +552,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1054,7 @@
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AF4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2823AF14-4748-4019-BD7D-F91F970D3C5E}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,10 +1575,13 @@
     <col min="23" max="26" width="9.5546875" customWidth="1"/>
     <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="31" width="9.5546875" customWidth="1"/>
-    <col min="32" max="32" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1">
         <v>2020</v>
       </c>
@@ -1655,263 +1675,1010 @@
       <c r="AF1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG1">
+        <v>2051</v>
+      </c>
+      <c r="AH1">
+        <v>2052</v>
+      </c>
+      <c r="AI1">
+        <v>2053</v>
+      </c>
+      <c r="AJ1">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2">
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>295670.72712234</v>
+      </c>
+      <c r="C2" s="2">
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>295670.72712234</v>
+      </c>
+      <c r="D2" s="2">
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>332320.6253236754</v>
+      </c>
+      <c r="E2" s="2">
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>239071.34609082571</v>
+      </c>
+      <c r="F2" s="2">
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>225651.85178123059</v>
+      </c>
+      <c r="G2" s="2">
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>214171.32910223768</v>
+      </c>
+      <c r="H2" s="2">
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205080.57172721188</v>
+      </c>
+      <c r="I2" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>195989.81435218608</v>
+      </c>
+      <c r="J2" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>186899.05697716027</v>
+      </c>
+      <c r="K2" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>177807.92704537965</v>
+      </c>
+      <c r="L2" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>168720.15012439265</v>
+      </c>
+      <c r="M2" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>165761.86321252867</v>
+      </c>
+      <c r="N2" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>162803.57630066472</v>
+      </c>
+      <c r="O2" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>159842.49521313942</v>
+      </c>
+      <c r="P2" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>156884.39457965287</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>153929.27440020515</v>
+      </c>
+      <c r="R2" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>150968.00703430243</v>
+      </c>
+      <c r="S2" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>148009.90640081587</v>
+      </c>
+      <c r="T2" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>145051.61948895192</v>
+      </c>
+      <c r="U2" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>142093.51885546543</v>
+      </c>
+      <c r="V2" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>139132.25148956268</v>
+      </c>
+      <c r="W2" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>136174.15085607613</v>
+      </c>
+      <c r="X2" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>133219.03067662838</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>130260.93004314188</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>127299.66267723915</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>124341.3757653752</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>121383.2751318887</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>118424.98822002472</v>
+      </c>
+      <c r="AD2" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>115463.72085412197</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>112505.62022063546</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>109550.68631956511</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>109550.68631956511</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>109550.68631956511</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>109550.68631956511</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>109550.68631956511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
         <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>295670.72712234</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>295670.72712234</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>332320.6253236754</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>319560.92902691476</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
         <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>305268.34796233533</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="2">
         <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>267528.72125307191</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H3" s="2">
         <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>258874.41411634957</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I3" s="2">
         <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>250219.54814449497</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J3" s="2">
         <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>241563.93705913064</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K3" s="2">
         <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>232907.58086025662</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L3" s="2">
         <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>224250.2932694956</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M3" s="2">
         <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>220791.66263587188</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N3" s="2">
         <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>217333.21828062556</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O3" s="2">
         <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>213874.77392537927</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>210416.32957013301</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>206958.25777164166</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R3" s="2">
         <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>203500.18597315016</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S3" s="2">
         <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>200042.11417465872</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T3" s="2">
         <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>196584.41493292214</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U3" s="2">
         <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>193126.71569118553</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V3" s="2">
         <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>189669.20272782643</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W3" s="2">
         <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>186211.8760428447</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X3" s="2">
         <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>182754.73563624034</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y3" s="2">
         <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>179297.78150801346</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z3" s="2">
         <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>175840.82737978661</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA3" s="2">
         <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>172384.24580831456</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB3" s="2">
         <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>168927.66423684251</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC3" s="2">
         <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>165471.45522212531</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD3" s="2">
         <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>162015.43248578554</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE3" s="2">
         <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>158559.59602782319</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF3" s="2">
         <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
         <v>155103.94584823828</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG3" s="5">
+        <v>155103.94584823828</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>155103.94584823828</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>155103.94584823828</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>155103.94584823828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>295670.72712234</v>
+      </c>
+      <c r="C4" s="2">
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>295670.72712234</v>
+      </c>
+      <c r="D4" s="2">
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>332320.6253236754</v>
+      </c>
+      <c r="E4" s="2">
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>344629.90050382598</v>
+      </c>
+      <c r="F4" s="2">
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>347090.26531283662</v>
+      </c>
+      <c r="G4" s="2">
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>342165.62384888937</v>
+      </c>
+      <c r="H4" s="2">
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>329351.53426592099</v>
+      </c>
+      <c r="I4" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>316537.63096132991</v>
+      </c>
+      <c r="J4" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>303723.91393511638</v>
+      </c>
+      <c r="K4" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>290910.38318728027</v>
+      </c>
+      <c r="L4" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>278097.03871782159</v>
+      </c>
+      <c r="M4" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>276193.0874221751</v>
+      </c>
+      <c r="N4" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>274288.94984815124</v>
+      </c>
+      <c r="O4" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>272384.81227412733</v>
+      </c>
+      <c r="P4" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>270480.86097848084</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>268576.72340445698</v>
+      </c>
+      <c r="R4" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>266672.58583043312</v>
+      </c>
+      <c r="S4" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>264768.63453478657</v>
+      </c>
+      <c r="T4" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>262864.49696076271</v>
+      </c>
+      <c r="U4" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>260960.54566511625</v>
+      </c>
+      <c r="V4" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>259056.40809109237</v>
+      </c>
+      <c r="W4" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>257152.27051706851</v>
+      </c>
+      <c r="X4" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>255248.31922142199</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>253344.18164739819</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>251440.04407337433</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>249536.09277772781</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>247631.95520370395</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>245727.81762968007</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>243823.86633403358</v>
+      </c>
+      <c r="AE4" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>241919.72876000969</v>
+      </c>
+      <c r="AF4" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)*1000*('Cost breakdown NREL'!$B$9+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>240015.5911859858</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>240015.5911859858</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>240015.5911859858</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>240015.5911859858</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>240015.5911859858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75013386-D65F-4F42-82AA-9369535BE7EB}">
+  <dimension ref="A1:AJ4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.5546875" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="9.5546875" customWidth="1"/>
+    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="9.5546875" customWidth="1"/>
+    <col min="32" max="36" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>2020</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1">
+        <v>2023</v>
+      </c>
+      <c r="F1">
+        <v>2024</v>
+      </c>
+      <c r="G1">
+        <v>2025</v>
+      </c>
+      <c r="H1">
+        <v>2026</v>
+      </c>
+      <c r="I1">
+        <v>2027</v>
+      </c>
+      <c r="J1">
+        <v>2028</v>
+      </c>
+      <c r="K1">
+        <v>2029</v>
+      </c>
+      <c r="L1">
+        <v>2030</v>
+      </c>
+      <c r="M1">
+        <v>2031</v>
+      </c>
+      <c r="N1">
+        <v>2032</v>
+      </c>
+      <c r="O1">
+        <v>2033</v>
+      </c>
+      <c r="P1">
+        <v>2034</v>
+      </c>
+      <c r="Q1">
+        <v>2035</v>
+      </c>
+      <c r="R1">
+        <v>2036</v>
+      </c>
+      <c r="S1">
+        <v>2037</v>
+      </c>
+      <c r="T1">
+        <v>2038</v>
+      </c>
+      <c r="U1">
+        <v>2039</v>
+      </c>
+      <c r="V1">
+        <v>2040</v>
+      </c>
+      <c r="W1">
+        <v>2041</v>
+      </c>
+      <c r="X1">
+        <v>2042</v>
+      </c>
+      <c r="Y1">
+        <v>2043</v>
+      </c>
+      <c r="Z1">
+        <v>2044</v>
+      </c>
+      <c r="AA1">
+        <v>2045</v>
+      </c>
+      <c r="AB1">
+        <v>2046</v>
+      </c>
+      <c r="AC1">
+        <v>2047</v>
+      </c>
+      <c r="AD1">
+        <v>2048</v>
+      </c>
+      <c r="AE1">
+        <v>2049</v>
+      </c>
+      <c r="AF1">
+        <v>2050</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>2051</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>2052</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>2053</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
+      </c>
+      <c r="C2" s="2">
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
+      </c>
+      <c r="D2" s="2">
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>263326.05887093366</v>
+      </c>
+      <c r="E2" s="2">
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>189436.67818917381</v>
+      </c>
+      <c r="F2" s="2">
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>178803.26491503586</v>
+      </c>
+      <c r="G2" s="2">
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>169706.26472766226</v>
+      </c>
+      <c r="H2" s="2">
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>162502.88001632856</v>
+      </c>
+      <c r="I2" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>155299.49530499487</v>
+      </c>
+      <c r="J2" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>148096.11059366117</v>
+      </c>
+      <c r="K2" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>140892.43067374133</v>
+      </c>
+      <c r="L2" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>133691.40763109707</v>
+      </c>
+      <c r="M2" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>131347.30385254926</v>
+      </c>
+      <c r="N2" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>129003.20007400145</v>
+      </c>
+      <c r="O2" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>126656.88223105727</v>
+      </c>
+      <c r="P2" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>124312.92605680255</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>121971.33155123725</v>
+      </c>
+      <c r="R2" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>119624.86610400002</v>
+      </c>
+      <c r="S2" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>117280.90992974529</v>
+      </c>
+      <c r="T2" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>114936.80615119748</v>
+      </c>
+      <c r="U2" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>112592.84997694279</v>
+      </c>
+      <c r="V2" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>110246.38452970554</v>
+      </c>
+      <c r="W2" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>107902.42835545079</v>
+      </c>
+      <c r="X2" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>105560.8338498855</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>103216.87767563078</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>100870.41222839357</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>98526.308449845747</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>96182.352275591023</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>93838.248497043183</v>
+      </c>
+      <c r="AD2" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>91491.783049805977</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>89147.826875551254</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,2,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>86806.379974279029</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>86806.379974279029</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>86806.379974279029</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>86806.379974279029</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>86806.379974279029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>292856.51176780206</v>
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
       </c>
       <c r="C3" s="2">
-        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>292856.51176780206</v>
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
       </c>
       <c r="D3" s="2">
-        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>329157.57358866697</v>
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>263326.05887093366</v>
       </c>
       <c r="E3" s="2">
-        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>316519.32500364655</v>
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>253215.46000291719</v>
       </c>
       <c r="F3" s="2">
-        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>302362.78175883851</v>
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>241890.22540707077</v>
       </c>
       <c r="G3" s="2">
-        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>264982.36354475952</v>
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>211985.89083580763</v>
       </c>
       <c r="H3" s="2">
-        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>256410.4287289771</v>
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205128.34298318165</v>
       </c>
       <c r="I3" s="2">
-        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>247837.9403970956</v>
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>198270.35231767647</v>
       </c>
       <c r="J3" s="2">
-        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>239264.71404374859</v>
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>191411.77123499889</v>
       </c>
       <c r="K3" s="2">
-        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>230690.74966893613</v>
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>184552.59973514895</v>
       </c>
       <c r="L3" s="2">
-        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>222115.86276729195</v>
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>177692.69021383356</v>
       </c>
       <c r="M3" s="2">
-        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>218690.15163006057</v>
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>174952.12130404849</v>
       </c>
       <c r="N3" s="2">
-        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>215264.62499819553</v>
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>172211.69999855643</v>
       </c>
       <c r="O3" s="2">
-        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>211839.09836633052</v>
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>169471.27869306441</v>
       </c>
       <c r="P3" s="2">
-        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>208413.57173446551</v>
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>166730.85738757241</v>
       </c>
       <c r="Q3" s="2">
-        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>204988.41411333327</v>
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>163990.73129066662</v>
       </c>
       <c r="R3" s="2">
-        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>201563.25649220095</v>
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>161250.60519376074</v>
       </c>
       <c r="S3" s="2">
-        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>198138.09887106865</v>
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>158510.47909685489</v>
       </c>
       <c r="T3" s="2">
-        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>194713.31026066907</v>
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>155770.64820853525</v>
       </c>
       <c r="U3" s="2">
-        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>191288.52165026945</v>
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>153030.81732021557</v>
       </c>
       <c r="V3" s="2">
-        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>187863.91754523627</v>
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>150291.13403618903</v>
       </c>
       <c r="W3" s="2">
-        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>184439.49794556946</v>
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>147551.59835645556</v>
       </c>
       <c r="X3" s="2">
-        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>181015.26285126893</v>
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>144812.21028101514</v>
       </c>
       <c r="Y3" s="2">
-        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>177591.2122623348</v>
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>142072.96980986785</v>
       </c>
       <c r="Z3" s="2">
-        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>174167.1616734007</v>
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>139333.72933872056</v>
       </c>
       <c r="AA3" s="2">
-        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>170743.48009519925</v>
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>136594.78407615941</v>
       </c>
       <c r="AB3" s="2">
-        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>167319.79851699786</v>
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>133855.8388135983</v>
       </c>
       <c r="AC3" s="2">
-        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>163896.48594952916</v>
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>131117.18875962336</v>
       </c>
       <c r="AD3" s="2">
-        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>160473.35788742686</v>
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>128378.68630994151</v>
       </c>
       <c r="AE3" s="2">
-        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>157050.41433069092</v>
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>125640.33146455274</v>
       </c>
       <c r="AF3" s="2">
-        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/4*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
-        <v>153627.6552793213</v>
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,3,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>122902.12422345704</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>122902.12422345704</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>122902.12422345704</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>122902.12422345704</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>122902.12422345704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <f>HLOOKUP(B$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
+      </c>
+      <c r="C4" s="2">
+        <f>HLOOKUP(C$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>234285.20941424163</v>
+      </c>
+      <c r="D4" s="2">
+        <f>HLOOKUP(D$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>263326.05887093366</v>
+      </c>
+      <c r="E4" s="2">
+        <f>HLOOKUP(E$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>273079.75055826054</v>
+      </c>
+      <c r="F4" s="2">
+        <f>HLOOKUP(F$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>275029.30806138122</v>
+      </c>
+      <c r="G4" s="2">
+        <f>HLOOKUP(G$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>271127.09336498502</v>
+      </c>
+      <c r="H4" s="2">
+        <f>HLOOKUP(H$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>260973.39404338662</v>
+      </c>
+      <c r="I4" s="2">
+        <f>HLOOKUP(I$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>250819.8423260813</v>
+      </c>
+      <c r="J4" s="2">
+        <f>HLOOKUP(J$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>240666.43821306911</v>
+      </c>
+      <c r="K4" s="2">
+        <f>HLOOKUP(K$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>230513.18170434996</v>
+      </c>
+      <c r="L4" s="2">
+        <f>HLOOKUP(L$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>220360.07279992398</v>
+      </c>
+      <c r="M4" s="2">
+        <f>HLOOKUP(M$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>218851.4093202604</v>
+      </c>
+      <c r="N4" s="2">
+        <f>HLOOKUP(N$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>217342.59823630378</v>
+      </c>
+      <c r="O4" s="2">
+        <f>HLOOKUP(O$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>215833.7871523471</v>
+      </c>
+      <c r="P4" s="2">
+        <f>HLOOKUP(P$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>214325.12367268346</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>HLOOKUP(Q$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>212816.31258872684</v>
+      </c>
+      <c r="R4" s="2">
+        <f>HLOOKUP(R$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>211307.50150477022</v>
+      </c>
+      <c r="S4" s="2">
+        <f>HLOOKUP(S$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>209798.83802510661</v>
+      </c>
+      <c r="T4" s="2">
+        <f>HLOOKUP(T$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>208290.02694114993</v>
+      </c>
+      <c r="U4" s="2">
+        <f>HLOOKUP(U$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>206781.36346148638</v>
+      </c>
+      <c r="V4" s="2">
+        <f>HLOOKUP(V$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>205272.5523775297</v>
+      </c>
+      <c r="W4" s="2">
+        <f>HLOOKUP(W$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>203763.74129357305</v>
+      </c>
+      <c r="X4" s="2">
+        <f>HLOOKUP(X$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>202255.07781390948</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>HLOOKUP(Y$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>200746.26672995285</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>HLOOKUP(Z$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>199237.45564599618</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>HLOOKUP(AA$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>197728.79216633263</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>HLOOKUP(AB$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>196219.98108237592</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>HLOOKUP(AC$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>194711.16999841927</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>HLOOKUP(AD$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>193202.50651875572</v>
+      </c>
+      <c r="AE4" s="2">
+        <f>HLOOKUP(AE$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>191693.69543479901</v>
+      </c>
+      <c r="AF4" s="2">
+        <f>HLOOKUP(AF$1,'Investment Cost NREL, EUR'!$B$1:$AF$4,4,FALSE)/5*1000*('Cost breakdown NREL'!$B$2+SUM('Cost breakdown NREL'!$B$3:$B$8)/2)/SUM('Cost breakdown NREL'!$B$2:$B$9)</f>
+        <v>190184.88435084239</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>190184.88435084239</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>190184.88435084239</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>190184.88435084239</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>190184.88435084239</v>
       </c>
     </row>
   </sheetData>
